--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376540.544056189</v>
+        <v>3376583.85652574</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12288795.66754614</v>
+        <v>12281330.79533561</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2890.215113754025</v>
+        <v>8533.008515950047</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7996248.904111874</v>
+        <v>7995643.298656513</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>6.05642108929943</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>6.876045741711437</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,29 +974,29 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F7" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="F8" t="n">
-        <v>13.994489848467</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.994489848467</v>
@@ -1153,35 +1153,35 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>5.450300916818297</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>13.994489848467</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.32634665852973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>12.32634665852973</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="F9" t="n">
         <v>13.994489848467</v>
       </c>
       <c r="G9" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>12.32634665852973</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,49 +1314,49 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>12.32634665852973</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>13.994489848467</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>12.32634665852973</v>
-      </c>
       <c r="X10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>13.994489848467</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C11" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D11" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200476</v>
       </c>
       <c r="F11" t="n">
         <v>375.2658433894975</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
@@ -1438,7 +1438,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T12" t="n">
         <v>189.0833237787849</v>
@@ -1545,10 +1545,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442994</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S13" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V13" t="n">
         <v>220.5274409716141</v>
@@ -1624,7 +1624,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H14" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645695</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1706,7 +1706,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1782,10 +1782,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H16" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139452941</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424833</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1861,7 +1861,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1912,7 +1912,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2010,10 +2010,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707168</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2022,7 +2022,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2070,7 +2070,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2098,7 +2098,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2146,10 +2146,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262555</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2259,7 +2259,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2307,7 +2307,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684696</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2335,7 +2335,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2386,7 +2386,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707186</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
@@ -2496,7 +2496,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2544,7 +2544,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>353.0968720176593</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>335.6359221251863</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>325.0460719748617</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>352.2934004264405</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>377.2390760958901</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>380.5274367311424</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>257.2148987011486</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295086</v>
+        <v>62.29337912934442</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>170.9658353609654</v>
       </c>
       <c r="U26" t="n">
-        <v>219.324384064569</v>
+        <v>221.2976167709613</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>298.1152888243136</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>319.6039990715917</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>340.0941310326477</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>356.6009690102323</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>150.195010536116</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>137.6098514528066</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>71.9350570658257</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>116.7969930007479</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>115.78407837711</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>136.0491312574209</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>112.0977380506924</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139452949</v>
+        <v>56.49952410092278</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221582</v>
+        <v>44.02070500860845</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>154.211882948876</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>188.4605027465347</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>256.5563390676578</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>222.5006736780067</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>256.8860286907697</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>196.0726857432159</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>188.9476837062735</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>353.0968720176593</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>335.6359221251863</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>325.0460719748617</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>352.2934004264405</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894976</v>
+        <v>377.2390760958901</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247499</v>
+        <v>380.5274367311424</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947561</v>
+        <v>257.2148987011486</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295188</v>
+        <v>62.29337912934442</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545726</v>
+        <v>170.9658353609649</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645686</v>
+        <v>221.2976167709618</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179211</v>
+        <v>298.1152888243136</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651992</v>
+        <v>319.6039990715917</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262552</v>
+        <v>340.0941310326477</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038398</v>
+        <v>356.6009690102323</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297235</v>
+        <v>150.195010536116</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>137.6098514528065</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>118.9785033723911</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943554</v>
+        <v>116.7969930007479</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>115.78407837711</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>89.00568495085537</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>112.0977380506924</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452753</v>
+        <v>56.49952410092278</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221591</v>
+        <v>44.02070500860842</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424835</v>
+        <v>154.211882948876</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401422</v>
+        <v>188.4605027465347</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612653</v>
+        <v>256.5563390676578</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716142</v>
+        <v>222.5006736780067</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843772</v>
+        <v>256.8860286907697</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>196.0726857432159</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.974450999881</v>
+        <v>188.9476837062735</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947561</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645681</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221591</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
         <v>186.4872700401422</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998783</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3444,7 +3444,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453065</v>
+        <v>54.52629139453143</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3480,7 +3480,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645686</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659962</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3726,10 +3726,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3751,10 +3751,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295265</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3918,7 +3918,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221648</v>
+        <v>42.04747230221693</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3957,10 +3957,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -3994,7 +3994,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295168</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V44" t="n">
         <v>296.1420561179209</v>
@@ -4137,25 +4137,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707199</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453149</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221568</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
         <v>220.527440971614</v>
@@ -4200,7 +4200,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4336,13 +4336,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M2" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O2" t="n">
         <v>20.69689768255142</v>
@@ -4369,7 +4369,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X2" t="n">
         <v>21.38658590694733</v>
@@ -4391,13 +4391,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G3" t="n">
         <v>14.44108515774386</v>
@@ -4409,7 +4409,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K3" t="n">
         <v>7.357368943631237</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I4" t="n">
         <v>0.5500836593369149</v>
@@ -4491,16 +4491,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L4" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
@@ -4509,31 +4509,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="5">
@@ -4573,10 +4573,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N5" t="n">
         <v>7.357368943631237</v>
@@ -4591,13 +4591,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S5" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S5" t="n">
-        <v>14.44108515774386</v>
-      </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
         <v>14.44108515774386</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4685,13 +4685,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D7" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E7" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L7" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
@@ -4746,31 +4746,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.52710418323192</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="C8" t="n">
-        <v>43.52710418323192</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="D8" t="n">
-        <v>43.52710418323192</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="E8" t="n">
-        <v>43.52710418323192</v>
+        <v>27.70626273029831</v>
       </c>
       <c r="F8" t="n">
-        <v>29.39125585144707</v>
+        <v>20.76076198109484</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25540751966221</v>
+        <v>6.624913649309985</v>
       </c>
       <c r="H8" t="n">
-        <v>15.25540751966221</v>
+        <v>6.624913649309985</v>
       </c>
       <c r="I8" t="n">
         <v>1.11955918787736</v>
@@ -4822,34 +4822,34 @@
         <v>42.12341444388568</v>
       </c>
       <c r="P8" t="n">
-        <v>42.12341444388568</v>
+        <v>55.97795939386801</v>
       </c>
       <c r="Q8" t="n">
         <v>55.97795939386801</v>
       </c>
       <c r="R8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="S8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="T8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="U8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="V8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="W8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="X8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="Y8" t="n">
-        <v>43.52710418323192</v>
+        <v>41.84211106208316</v>
       </c>
     </row>
     <row r="9">
@@ -4862,22 +4862,22 @@
         <v>55.97795939386801</v>
       </c>
       <c r="C9" t="n">
-        <v>55.97795939386801</v>
+        <v>43.52710418323192</v>
       </c>
       <c r="D9" t="n">
-        <v>55.97795939386801</v>
+        <v>29.39125585144707</v>
       </c>
       <c r="E9" t="n">
-        <v>55.97795939386801</v>
+        <v>15.25540751966221</v>
       </c>
       <c r="F9" t="n">
-        <v>41.84211106208316</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="G9" t="n">
-        <v>27.70626273029831</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="H9" t="n">
-        <v>13.57041439851346</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="I9" t="n">
         <v>1.11955918787736</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="C10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="D10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="E10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="F10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="G10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="H10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="I10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851346</v>
       </c>
       <c r="J10" t="n">
         <v>1.11955918787736</v>
@@ -4968,16 +4968,16 @@
         <v>1.11955918787736</v>
       </c>
       <c r="L10" t="n">
-        <v>1.11955918787736</v>
+        <v>14.97410413785969</v>
       </c>
       <c r="M10" t="n">
-        <v>14.97410413785969</v>
+        <v>28.82864908784203</v>
       </c>
       <c r="N10" t="n">
-        <v>28.82864908784203</v>
+        <v>42.12341444388568</v>
       </c>
       <c r="O10" t="n">
-        <v>42.12341444388568</v>
+        <v>55.97795939386801</v>
       </c>
       <c r="P10" t="n">
         <v>55.97795939386801</v>
@@ -5001,13 +5001,13 @@
         <v>55.97795939386801</v>
       </c>
       <c r="W10" t="n">
-        <v>43.52710418323192</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="X10" t="n">
-        <v>29.39125585144707</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.25540751966221</v>
+        <v>27.70626273029831</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H11" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050964</v>
@@ -5053,37 +5053,37 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W11" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y11" t="n">
         <v>2476.13298385146</v>
@@ -5114,22 +5114,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J12" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K12" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1471.383887449135</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N12" t="n">
         <v>2049.239235375538</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C13" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K13" t="n">
         <v>459.5287020443611</v>
@@ -5214,34 +5214,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S13" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U13" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y13" t="n">
         <v>1022.581387254981</v>
@@ -5266,49 +5266,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G14" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U14" t="n">
         <v>3795.851627400162</v>
@@ -5354,22 +5354,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
         <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O15" t="n">
         <v>2555.644190323788</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D16" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897924</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N16" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q16" t="n">
         <v>2529.521427597205</v>
@@ -5466,19 +5466,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y16" t="n">
         <v>1022.581387254981</v>
@@ -5503,46 +5503,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5591,16 +5591,16 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
         <v>1522.315654538067</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N21" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O21" t="n">
         <v>2555.644190323788</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
@@ -5916,19 +5916,19 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5940,19 +5940,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5977,22 +5977,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6010,31 +6010,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6062,13 +6062,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
         <v>519.5985603334505</v>
@@ -6080,10 +6080,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C25" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042791</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
@@ -6168,19 +6168,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357084</v>
@@ -6189,10 +6189,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2133.991102740697</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1794.964918775862</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1466.635553144688</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1110.783633522021</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>729.7340617079908</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>345.3629134947158</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>85.54988450365667</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>85.54988450365667</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>338.0627771362241</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>767.2526642236854</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1364.506733477985</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2029.687490173761</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2710.245375316777</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3339.54162666031</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3842.130417039726</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4171.38092119425</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4277.494225182833</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4214.571620001678</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4041.878857010804</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3818.345910777509</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3517.219356409516</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3194.387034114979</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2850.857608829476</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2490.654609829241</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5579923844783</v>
+        <v>942.1274679130187</v>
       </c>
       <c r="C27" t="n">
-        <v>767.1049631033513</v>
+        <v>767.6744386318917</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1705534421001</v>
+        <v>618.7400289706404</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9330984366445</v>
+        <v>459.502573965185</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3985404635295</v>
+        <v>312.9680159920699</v>
       </c>
       <c r="G27" t="n">
-        <v>176.4447347764803</v>
+        <v>177.0142103050208</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>90.46523895031223</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>85.54988450365667</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>217.1269865121264</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334505</v>
+        <v>469.2362687730595</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>923.034898367387</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.953362977676</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>2049.808710904078</v>
       </c>
       <c r="O27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="R27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="S27" t="n">
-        <v>2433.808769274326</v>
+        <v>2434.378244802866</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.815512932119</v>
+        <v>2243.384988460659</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.774593334977</v>
+        <v>2015.344068863518</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.622485103235</v>
+        <v>1780.191960631775</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.385128375033</v>
+        <v>1525.954603903573</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.5336281695</v>
+        <v>1318.103103698041</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.773329404546</v>
+        <v>1110.342804933087</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>839.8654130950972</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477714</v>
+        <v>700.8655631427673</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609043</v>
+        <v>628.203889338903</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039797</v>
+        <v>510.227128732087</v>
       </c>
       <c r="F28" t="n">
-        <v>386.724545631538</v>
+        <v>393.2735142097537</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749438</v>
+        <v>255.850149303268</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897925</v>
+        <v>142.6201108682251</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>85.54988450365667</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>183.7902538534902</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>456.1911768142443</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>852.091742080833</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1278.307553052119</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1700.52117498687</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2076.727303566504</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2379.350603901928</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2514.462900091116</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2469.997541496562</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2314.227962760324</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2123.863818571905</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1864.716001331847</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1639.967846101537</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1380.487009040153</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1182.433791117713</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>991.5775449497598</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112809</v>
+        <v>2133.991102740697</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497866</v>
+        <v>1794.964918775863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216584</v>
+        <v>1466.635553144689</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943808</v>
+        <v>1110.783633522022</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796694</v>
+        <v>729.7340617079917</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162841</v>
+        <v>345.3629134947159</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511628</v>
+        <v>85.54988450365668</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511628</v>
+        <v>85.54988450365668</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076861</v>
+        <v>338.0627771362241</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951475</v>
+        <v>767.2526642236854</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050966</v>
+        <v>1336.602432579504</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746741</v>
+        <v>2001.783189275279</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889758</v>
+        <v>2682.341074418296</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.06785023329</v>
+        <v>3311.637325761828</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612706</v>
+        <v>3814.226116141244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.90714476723</v>
+        <v>4143.476620295768</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755814</v>
+        <v>4277.494225182834</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.09100792455</v>
+        <v>4214.571620001679</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283567</v>
+        <v>4041.878857010805</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400164</v>
+        <v>3818.34591077751</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382062</v>
+        <v>3517.219356409516</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437417</v>
+        <v>3194.38703411498</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501806</v>
+        <v>2850.857608829477</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851463</v>
+        <v>2490.654609829242</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5579923844783</v>
+        <v>942.1274679130187</v>
       </c>
       <c r="C30" t="n">
-        <v>767.1049631033513</v>
+        <v>767.6744386318917</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1705534421001</v>
+        <v>618.7400289706404</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9330984366445</v>
+        <v>459.502573965185</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3985404635295</v>
+        <v>312.9680159920699</v>
       </c>
       <c r="G30" t="n">
-        <v>176.4447347764803</v>
+        <v>177.0142103050208</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177182</v>
+        <v>90.46523895031223</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511628</v>
+        <v>85.54988450365668</v>
       </c>
       <c r="J30" t="n">
-        <v>216.557510983586</v>
+        <v>217.1269865121264</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>520.1680358619908</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>973.9666654563182</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.885130066607</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>2049.808710904078</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="R30" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.213665852329</v>
       </c>
       <c r="S30" t="n">
-        <v>2433.808769274326</v>
+        <v>2434.378244802866</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.815512932119</v>
+        <v>2243.384988460659</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.774593334977</v>
+        <v>2015.344068863518</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.622485103235</v>
+        <v>1780.191960631775</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.385128375033</v>
+        <v>1525.954603903573</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.5336281695</v>
+        <v>1318.103103698041</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.773329404546</v>
+        <v>1110.342804933087</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502083</v>
+        <v>839.8654130950972</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477699</v>
+        <v>700.8655631427673</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609027</v>
+        <v>580.6852567060087</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039781</v>
+        <v>462.7084960991926</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315362</v>
+        <v>345.7548815768592</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749419</v>
+        <v>255.850149303268</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897905</v>
+        <v>142.6201108682251</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511628</v>
+        <v>85.54988450365668</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>183.7902538534902</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>456.1911768142443</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>852.091742080833</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1278.307553052119</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1700.52117498687</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2076.727303566504</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2379.350603901928</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2514.462900091116</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2469.997541496562</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2314.227962760324</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2123.863818571905</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1864.716001331847</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1639.967846101537</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1380.487009040153</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1182.433791117713</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>991.5775449497598</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076839</v>
@@ -6706,13 +6706,13 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6721,31 +6721,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6773,13 +6773,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
@@ -6788,7 +6788,7 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
         <v>2049.239235375538</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.862419750211</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477725</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6873,37 +6873,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6958,31 +6958,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
         <v>2049.239235375538</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609052</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749457</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897936</v>
+        <v>140.0574709897945</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7116,7 +7116,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352544</v>
@@ -7125,10 +7125,10 @@
         <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357084</v>
@@ -7137,7 +7137,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254982</v>
@@ -7159,34 +7159,34 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7195,13 +7195,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
         <v>4017.391409283565</v>
@@ -7213,13 +7213,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7247,13 +7247,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
         <v>519.5985603334505</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502083</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.85573414777</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7353,31 +7353,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7399,19 +7399,19 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
         <v>766.683188695145</v>
@@ -7435,7 +7435,7 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
         <v>4188.091007924547</v>
@@ -7484,13 +7484,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7566,16 +7566,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
@@ -7593,10 +7593,10 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127668</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7669,31 +7669,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7721,13 +7721,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
         <v>519.5985603334505</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502122</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147774</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D46" t="n">
-        <v>617.668592060907</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039826</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749457</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897945</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
@@ -7812,7 +7812,7 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
@@ -7842,16 +7842,16 @@
         <v>1887.747186237503</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.97188700630659</v>
+        <v>81.93968803257374</v>
       </c>
       <c r="K2" t="n">
-        <v>73.1023218482855</v>
+        <v>71.5553231566409</v>
       </c>
       <c r="L2" t="n">
-        <v>60.29143321677455</v>
+        <v>58.09442451483952</v>
       </c>
       <c r="M2" t="n">
-        <v>34.32162559941622</v>
+        <v>32.18615841378499</v>
       </c>
       <c r="N2" t="n">
-        <v>23.22926552940115</v>
+        <v>21.0592442521442</v>
       </c>
       <c r="O2" t="n">
-        <v>42.00292330274775</v>
+        <v>40.23165377516091</v>
       </c>
       <c r="P2" t="n">
-        <v>71.9426318361318</v>
+        <v>70.19378130612102</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.52163638907975</v>
+        <v>96.20832247370905</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>68.4254137058104</v>
+        <v>74.68668881003742</v>
       </c>
       <c r="K3" t="n">
-        <v>44.88170900557202</v>
+        <v>36.95492232517327</v>
       </c>
       <c r="L3" t="n">
-        <v>4.312858837151424</v>
+        <v>2.90000797560063</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.094181567562714</v>
+        <v>0.5459961178799517</v>
       </c>
       <c r="P3" t="n">
-        <v>15.91345723143431</v>
+        <v>14.67090191762361</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.06115545119668</v>
+        <v>60.2305401300256</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>68.79271293973815</v>
+        <v>75.03495590109603</v>
       </c>
       <c r="L4" t="n">
-        <v>64.69915733558993</v>
+        <v>57.01206224568583</v>
       </c>
       <c r="M4" t="n">
-        <v>64.55121455515088</v>
+        <v>63.41825670502335</v>
       </c>
       <c r="N4" t="n">
-        <v>55.24293309661518</v>
+        <v>54.40812854249219</v>
       </c>
       <c r="O4" t="n">
-        <v>71.7911462255238</v>
+        <v>71.29788913272691</v>
       </c>
       <c r="P4" t="n">
-        <v>75.0383222220329</v>
+        <v>74.3785325358182</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3904371773047</v>
+        <v>81.39043717730469</v>
       </c>
       <c r="K5" t="n">
         <v>70.73213850318879</v>
       </c>
       <c r="L5" t="n">
-        <v>57.35101119123405</v>
+        <v>50.47496544952261</v>
       </c>
       <c r="M5" t="n">
         <v>24.17379379562163</v>
       </c>
       <c r="N5" t="n">
-        <v>19.9045385482865</v>
+        <v>26.7805842899979</v>
       </c>
       <c r="O5" t="n">
         <v>39.14129792260681</v>
       </c>
       <c r="P5" t="n">
-        <v>69.26318781224035</v>
+        <v>69.26318781224032</v>
       </c>
       <c r="Q5" t="n">
         <v>102.1077112270649</v>
@@ -8300,7 +8300,7 @@
         <v>36.39580497093574</v>
       </c>
       <c r="L6" t="n">
-        <v>8.746431405204433</v>
+        <v>8.746431405204461</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>74.69769852336179</v>
+        <v>74.41987849339365</v>
       </c>
       <c r="L7" t="n">
-        <v>63.45653465754863</v>
+        <v>56.58048891583719</v>
       </c>
       <c r="M7" t="n">
         <v>63.24104316971207</v>
       </c>
       <c r="N7" t="n">
-        <v>53.68609462837691</v>
+        <v>53.96391465834506</v>
       </c>
       <c r="O7" t="n">
-        <v>64.01153997090502</v>
+        <v>70.88758571261644</v>
       </c>
       <c r="P7" t="n">
         <v>74.02744707780755</v>
@@ -8470,10 +8470,10 @@
         <v>9.673197374370716</v>
       </c>
       <c r="P8" t="n">
-        <v>43.10534597882096</v>
+        <v>57.09983582728796</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.02414950901735</v>
+        <v>81.02965966055035</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8616,19 +8616,19 @@
         <v>60.8337165552995</v>
       </c>
       <c r="L10" t="n">
-        <v>47.63833640834564</v>
+        <v>61.63282625681264</v>
       </c>
       <c r="M10" t="n">
         <v>60.93124123961569</v>
       </c>
       <c r="N10" t="n">
-        <v>51.87829534583896</v>
+        <v>51.31286141256756</v>
       </c>
       <c r="O10" t="n">
-        <v>68.93915359757922</v>
+        <v>69.50458753085061</v>
       </c>
       <c r="P10" t="n">
-        <v>80.74748437890585</v>
+        <v>66.75299453043885</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.18616252371874</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>28.18616252371973</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.271163503253159</v>
+        <v>7.259001922390609</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.25253053571015</v>
+        <v>7.252530535710168</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.04344630656537</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.0434463065655</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.721378677961184e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>705163.5447141083</v>
+        <v>704526.2958845587</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687728.5075432434</v>
+        <v>687750.5851845506</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687728.5075432432</v>
+        <v>687750.5851845506</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687728.5075432432</v>
+        <v>687728.5075432434</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687728.5075432434</v>
+        <v>687728.5075432432</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>758928.2613557174</v>
+        <v>758929.1568129169</v>
       </c>
       <c r="C2" t="n">
-        <v>758929.6333011176</v>
+        <v>758929.633301118</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="F2" t="n">
-        <v>759463.6371244629</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="G2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="H2" t="n">
-        <v>759463.6371244629</v>
+        <v>759463.637124463</v>
       </c>
       <c r="I2" t="n">
         <v>759463.6371244628</v>
       </c>
       <c r="J2" t="n">
-        <v>759463.6371244629</v>
+        <v>758419.2726164574</v>
       </c>
       <c r="K2" t="n">
+        <v>758419.2726164571</v>
+      </c>
+      <c r="L2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="M2" t="n">
         <v>759463.637124463</v>
       </c>
-      <c r="L2" t="n">
-        <v>759463.6371244629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="N2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="O2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="P2" t="n">
         <v>759463.6371244626</v>
-      </c>
-      <c r="P2" t="n">
-        <v>759463.6371244629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279282.9842492856</v>
+        <v>282198.099782437</v>
       </c>
       <c r="C3" t="n">
-        <v>4220.595355757347</v>
+        <v>1465.84834142816</v>
       </c>
       <c r="D3" t="n">
-        <v>30776.03416585466</v>
+        <v>30776.03416585473</v>
       </c>
       <c r="E3" t="n">
         <v>1103704.48410392</v>
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27087.23799381543</v>
+        <v>27371.15001856926</v>
       </c>
       <c r="K3" t="n">
-        <v>1.130283635575324e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1801.614137422758</v>
+        <v>1578.58616511416</v>
       </c>
       <c r="M3" t="n">
         <v>261230.7401297385</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.16188177112</v>
+        <v>23709.5757166571</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359137.4574165628</v>
+        <v>358382.7269798723</v>
       </c>
       <c r="C4" t="n">
         <v>357981.1219130211</v>
@@ -26426,40 +26426,40 @@
         <v>349359.1447665478</v>
       </c>
       <c r="E4" t="n">
-        <v>42179.65104603462</v>
+        <v>42179.65104603463</v>
       </c>
       <c r="F4" t="n">
-        <v>42179.65104603462</v>
+        <v>42179.65104603465</v>
       </c>
       <c r="G4" t="n">
-        <v>42179.65104603462</v>
+        <v>42179.65104603465</v>
       </c>
       <c r="H4" t="n">
-        <v>42179.6510460346</v>
+        <v>42179.65104603465</v>
       </c>
       <c r="I4" t="n">
-        <v>42179.6510460346</v>
+        <v>42179.65104603465</v>
       </c>
       <c r="J4" t="n">
-        <v>42179.6510460346</v>
+        <v>41232.16247699239</v>
       </c>
       <c r="K4" t="n">
-        <v>42179.6510460346</v>
+        <v>41232.16247699242</v>
       </c>
       <c r="L4" t="n">
-        <v>42179.65104603453</v>
+        <v>42179.65104603466</v>
       </c>
       <c r="M4" t="n">
-        <v>42179.65104603464</v>
+        <v>42179.65104603465</v>
       </c>
       <c r="N4" t="n">
-        <v>42179.65104603463</v>
+        <v>42179.65104603457</v>
       </c>
       <c r="O4" t="n">
-        <v>42179.65104603465</v>
+        <v>42179.65104603469</v>
       </c>
       <c r="P4" t="n">
-        <v>42179.65104603473</v>
+        <v>42179.65104603469</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40311.80450816289</v>
+        <v>40377.75372078528</v>
       </c>
       <c r="C5" t="n">
         <v>40412.84643290664</v>
@@ -26478,40 +26478,40 @@
         <v>41572.76501721094</v>
       </c>
       <c r="E5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="F5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95373.3478034523</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215531</v>
+        <v>95373.34780345231</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
     </row>
     <row r="6">
@@ -26521,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80181.54556633464</v>
+        <v>77969.13178843966</v>
       </c>
       <c r="C6" t="n">
-        <v>356300.6370636664</v>
+        <v>359068.3733601855</v>
       </c>
       <c r="D6" t="n">
-        <v>337755.6931748491</v>
+        <v>337755.6931748489</v>
       </c>
       <c r="E6" t="n">
-        <v>-481526.9321276481</v>
+        <v>-481526.932127648</v>
       </c>
       <c r="F6" t="n">
-        <v>622177.5519762732</v>
+        <v>622177.5519762725</v>
       </c>
       <c r="G6" t="n">
-        <v>622177.551976272</v>
+        <v>622177.5519762726</v>
       </c>
       <c r="H6" t="n">
         <v>622177.551976273</v>
@@ -26545,25 +26545,25 @@
         <v>622177.5519762728</v>
       </c>
       <c r="J6" t="n">
-        <v>595090.3139824575</v>
+        <v>594439.7897106651</v>
       </c>
       <c r="K6" t="n">
-        <v>622177.551976273</v>
+        <v>621810.939729234</v>
       </c>
       <c r="L6" t="n">
-        <v>620375.9378388503</v>
+        <v>620598.9658111583</v>
       </c>
       <c r="M6" t="n">
-        <v>360946.811846534</v>
+        <v>360946.8118465346</v>
       </c>
       <c r="N6" t="n">
-        <v>622177.5519762725</v>
+        <v>622177.5519762731</v>
       </c>
       <c r="O6" t="n">
-        <v>596889.3900945015</v>
+        <v>598467.9762596155</v>
       </c>
       <c r="P6" t="n">
-        <v>622177.5519762728</v>
+        <v>622177.5519762727</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.4376572049007</v>
+        <v>290.4628504444601</v>
       </c>
       <c r="C3" t="n">
         <v>292.0726078812197</v>
@@ -26813,10 +26813,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188953</v>
+        <v>1069.373556295708</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1069.373556295709</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582125</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.9732327063927</v>
       </c>
       <c r="M2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.6102023522139</v>
+        <v>29.63696964582138</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.4376572049007</v>
+        <v>290.4628504444601</v>
       </c>
       <c r="C3" t="n">
-        <v>4.634950676318904</v>
+        <v>1.609757436759594</v>
       </c>
       <c r="D3" t="n">
         <v>33.3539992024572</v>
       </c>
       <c r="E3" t="n">
-        <v>952.7332635364464</v>
+        <v>952.733263536446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.118444106755566</v>
+        <v>7.11844410675576</v>
       </c>
       <c r="E4" t="n">
         <v>1048.260622340486</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711323</v>
+        <v>13.99448984846686</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.118444106755112</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>1048.260622340486</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582125</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.118444106755566</v>
+        <v>7.11844410675576</v>
       </c>
       <c r="M4" t="n">
         <v>1048.260622340486</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>327.640748218884</v>
+        <v>327.5161984288754</v>
       </c>
       <c r="I2" t="n">
-        <v>159.051340192948</v>
+        <v>158.5824808467445</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.28316524005481</v>
+        <v>76.51922033619766</v>
       </c>
       <c r="S2" t="n">
-        <v>182.6884691297361</v>
+        <v>182.4113371058307</v>
       </c>
       <c r="T2" t="n">
-        <v>218.0375245614602</v>
+        <v>217.9842872412344</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2532106462229</v>
+        <v>251.2522377197539</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>363.6746795891696</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>141.3886444753393</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.6688339433196</v>
+        <v>136.718748013198</v>
       </c>
       <c r="H3" t="n">
-        <v>99.38828791775492</v>
+        <v>99.3254438091369</v>
       </c>
       <c r="I3" t="n">
-        <v>61.23393042047278</v>
+        <v>61.00989488339221</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.89530279402059</v>
+        <v>54.49129679874511</v>
       </c>
       <c r="S3" t="n">
-        <v>160.1992231956986</v>
+        <v>160.0783581639106</v>
       </c>
       <c r="T3" t="n">
-        <v>197.6726984403753</v>
+        <v>197.6464705857796</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9007069408043</v>
+        <v>225.9002788474214</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4726491569417</v>
+        <v>167.4671938904442</v>
       </c>
       <c r="H4" t="n">
-        <v>157.618745806679</v>
+        <v>150.6941977864711</v>
       </c>
       <c r="I4" t="n">
-        <v>139.8628721398187</v>
+        <v>132.822771656526</v>
       </c>
       <c r="J4" t="n">
-        <v>56.71323486941847</v>
+        <v>56.32754752804055</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.88291127204294</v>
+        <v>42.30215283458092</v>
       </c>
       <c r="R4" t="n">
-        <v>153.9873806798672</v>
+        <v>153.7420920608039</v>
       </c>
       <c r="S4" t="n">
-        <v>214.9835162523527</v>
+        <v>214.8884458352996</v>
       </c>
       <c r="T4" t="n">
-        <v>225.7309058399814</v>
+        <v>225.7075969740373</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2907568000445</v>
+        <v>286.2904592400537</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>246.0812222345286</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>69.236666350921</v>
+        <v>76.11271209263244</v>
       </c>
       <c r="S5" t="n">
-        <v>176.2074492925508</v>
+        <v>175.3878246401387</v>
       </c>
       <c r="T5" t="n">
         <v>217.9559587460407</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2517200088194</v>
+        <v>245.19529891952</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.4767625605679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
         <v>136.7152855160699</v>
@@ -27715,7 +27715,7 @@
         <v>106.1680491180583</v>
       </c>
       <c r="I6" t="n">
-        <v>67.76672745643796</v>
+        <v>61.71030636713853</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F7" t="n">
-        <v>139.3646269336318</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G7" t="n">
-        <v>160.5882453074533</v>
+        <v>167.4642910491648</v>
       </c>
       <c r="H7" t="n">
         <v>157.544434630262</v>
@@ -27797,7 +27797,7 @@
         <v>139.6115210441259</v>
       </c>
       <c r="J7" t="n">
-        <v>49.24627090787536</v>
+        <v>56.12231664958679</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.18303371991878</v>
+        <v>36.00265837233079</v>
       </c>
       <c r="R7" t="n">
         <v>153.6115697610955</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>367.9358802237948</v>
       </c>
       <c r="F8" t="n">
-        <v>392.8815558932444</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>326.076710699503</v>
       </c>
       <c r="I8" t="n">
-        <v>146.045181552719</v>
+        <v>154.5893704843677</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.68990544981293</v>
+        <v>53.69541560134593</v>
       </c>
       <c r="S8" t="n">
         <v>179.2083758820472</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>373.9115919975238</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>160.382152329786</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>133.4505757161718</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>143.6505906069339</v>
       </c>
       <c r="F9" t="n">
         <v>131.0747225449169</v>
       </c>
       <c r="G9" t="n">
-        <v>122.6490531032806</v>
+        <v>136.6435429517476</v>
       </c>
       <c r="H9" t="n">
-        <v>91.48067713521573</v>
+        <v>105.4751669836827</v>
       </c>
       <c r="I9" t="n">
-        <v>52.97029689470738</v>
+        <v>65.29664355323712</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.8374903334703</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>137.8027500709828</v>
       </c>
       <c r="J10" t="n">
-        <v>37.87546529624258</v>
+        <v>39.54360848617985</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>274.1966516780612</v>
+        <v>272.528508488124</v>
       </c>
       <c r="X10" t="n">
-        <v>211.7151655405702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>204.5901635036278</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="14">
@@ -28347,7 +28347,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221343</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221454</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221389</v>
+        <v>29.63696964582128</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221381</v>
+        <v>29.63696964582128</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221386</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.155528270170454</v>
+        <v>1.167689851033004</v>
       </c>
       <c r="H2" t="n">
-        <v>11.83405389688317</v>
+        <v>11.95860368689176</v>
       </c>
       <c r="I2" t="n">
-        <v>44.54850363574648</v>
+        <v>45.01736298194994</v>
       </c>
       <c r="J2" t="n">
-        <v>98.0740175203797</v>
+        <v>99.10621649411254</v>
       </c>
       <c r="K2" t="n">
-        <v>146.987529196695</v>
+        <v>148.5345278883397</v>
       </c>
       <c r="L2" t="n">
-        <v>182.3510274949241</v>
+        <v>184.270216166891</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9006533695679</v>
+        <v>205.0361205551992</v>
       </c>
       <c r="N2" t="n">
-        <v>206.1837980671898</v>
+        <v>208.3538193444467</v>
       </c>
       <c r="O2" t="n">
-        <v>194.6935138306823</v>
+        <v>196.7426033882373</v>
       </c>
       <c r="P2" t="n">
-        <v>166.1664096608492</v>
+        <v>167.91526019086</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.7840534853697</v>
+        <v>126.0973674007404</v>
       </c>
       <c r="R2" t="n">
-        <v>72.58595270109487</v>
+        <v>73.34989760495202</v>
       </c>
       <c r="S2" t="n">
-        <v>26.33160045650926</v>
+        <v>26.60873248041461</v>
       </c>
       <c r="T2" t="n">
-        <v>5.058325002671166</v>
+        <v>5.11156232289698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09244226161363633</v>
+        <v>0.09341518808264034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6182621305916733</v>
+        <v>0.6247691500126122</v>
       </c>
       <c r="H3" t="n">
-        <v>5.971110577030109</v>
+        <v>6.033954685648125</v>
       </c>
       <c r="I3" t="n">
-        <v>21.28665668923086</v>
+        <v>21.51069222631143</v>
       </c>
       <c r="J3" t="n">
-        <v>58.4122129608563</v>
+        <v>59.02698359834071</v>
       </c>
       <c r="K3" t="n">
-        <v>99.83577571049841</v>
+        <v>100.8865166491857</v>
       </c>
       <c r="L3" t="n">
-        <v>134.2415209427228</v>
+        <v>135.6543718042736</v>
       </c>
       <c r="M3" t="n">
         <v>149.0100796637298</v>
@@ -31144,25 +31144,25 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>147.100288588625</v>
+        <v>148.6484740383078</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0609501828959</v>
+        <v>119.3035054967066</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.92061863482483</v>
+        <v>79.75123395599591</v>
       </c>
       <c r="R3" t="n">
-        <v>38.3864856169111</v>
+        <v>38.79049161218659</v>
       </c>
       <c r="S3" t="n">
-        <v>11.48394790813919</v>
+        <v>11.60481293992724</v>
       </c>
       <c r="T3" t="n">
-        <v>2.492030254446261</v>
+        <v>2.518258109042063</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04067514017050484</v>
+        <v>0.04110323355346135</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.518330201517034</v>
+        <v>0.5237854680146</v>
       </c>
       <c r="H4" t="n">
-        <v>4.608426700760543</v>
+        <v>4.656928979257084</v>
       </c>
       <c r="I4" t="n">
-        <v>15.58760278743954</v>
+        <v>15.75165752902089</v>
       </c>
       <c r="J4" t="n">
-        <v>36.6459452472543</v>
+        <v>37.03163258863222</v>
       </c>
       <c r="K4" t="n">
-        <v>60.22054523079722</v>
+        <v>60.85434801115079</v>
       </c>
       <c r="L4" t="n">
-        <v>77.06156468735979</v>
+        <v>77.87261403555246</v>
       </c>
       <c r="M4" t="n">
-        <v>81.25061513416561</v>
+        <v>82.10575295432498</v>
       </c>
       <c r="N4" t="n">
-        <v>79.31865711032945</v>
+        <v>80.15346166445244</v>
       </c>
       <c r="O4" t="n">
-        <v>73.26361793806227</v>
+        <v>74.03469506082732</v>
       </c>
       <c r="P4" t="n">
-        <v>62.68968182711471</v>
+        <v>63.34947151332942</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.40308623794001</v>
+        <v>43.85989041711347</v>
       </c>
       <c r="R4" t="n">
-        <v>23.30601069730227</v>
+        <v>23.55129931636556</v>
       </c>
       <c r="S4" t="n">
-        <v>9.033081784619581</v>
+        <v>9.128152201672618</v>
       </c>
       <c r="T4" t="n">
-        <v>2.214683588300054</v>
+        <v>2.2379924542442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02827255644638371</v>
+        <v>0.02857011643716004</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31287,7 +31287,7 @@
         <v>45.26685111694763</v>
       </c>
       <c r="J5" t="n">
-        <v>99.65546734938158</v>
+        <v>99.6554673493816</v>
       </c>
       <c r="K5" t="n">
         <v>149.3577125417918</v>
@@ -31305,7 +31305,7 @@
         <v>197.8329592407914</v>
       </c>
       <c r="P5" t="n">
-        <v>168.8458536847406</v>
+        <v>168.8458536847407</v>
       </c>
       <c r="Q5" t="n">
         <v>126.7962043591279</v>
@@ -31314,10 +31314,10 @@
         <v>73.75640584851725</v>
       </c>
       <c r="S5" t="n">
-        <v>26.75619920439516</v>
+        <v>26.75619920439515</v>
       </c>
       <c r="T5" t="n">
-        <v>5.139890818090607</v>
+        <v>5.139890818090608</v>
       </c>
       <c r="U5" t="n">
         <v>0.09393289901707558</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6282316471407365</v>
+        <v>0.6282316471407366</v>
       </c>
       <c r="H6" t="n">
         <v>6.067395118438168</v>
@@ -31366,7 +31366,7 @@
         <v>21.62990539497712</v>
       </c>
       <c r="J6" t="n">
-        <v>59.35411364499391</v>
+        <v>59.3541136449939</v>
       </c>
       <c r="K6" t="n">
         <v>101.4456340034233</v>
@@ -31399,7 +31399,7 @@
         <v>2.532214402290951</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04133102941715375</v>
+        <v>0.04133102941715374</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5266883092940027</v>
+        <v>0.5266883092940026</v>
       </c>
       <c r="H7" t="n">
         <v>4.68273787717759</v>
@@ -31460,7 +31460,7 @@
         <v>80.59767554859957</v>
       </c>
       <c r="O7" t="n">
-        <v>74.44499848093777</v>
+        <v>74.44499848093778</v>
       </c>
       <c r="P7" t="n">
         <v>63.70055697134007</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I11" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869754</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O11" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R11" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247272</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>645.1509001052077</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160632</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T12" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,40 +31916,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P13" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R13" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32031,7 +32031,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O15" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32156,10 +32156,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32171,22 +32171,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383711</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32268,7 +32268,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>602.6701715750696</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32393,10 +32393,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32408,22 +32408,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32557,7 +32557,7 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>545.4906045327996</v>
       </c>
       <c r="M21" t="n">
         <v>696.597129487967</v>
@@ -32566,7 +32566,7 @@
         <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32800,13 +32800,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,7 +33028,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>392.4972796419682</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
@@ -33037,7 +33037,7 @@
         <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578284</v>
@@ -33508,10 +33508,10 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N33" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578284</v>
@@ -33742,13 +33742,13 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>545.4906045327996</v>
       </c>
       <c r="M36" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M2" t="n">
         <v>6.876045741711437</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
         <v>6.876045741711437</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>6.876045741711437</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="M10" t="n">
         <v>13.994489848467</v>
       </c>
       <c r="N10" t="n">
+        <v>13.42905591519561</v>
+      </c>
+      <c r="O10" t="n">
         <v>13.994489848467</v>
       </c>
-      <c r="O10" t="n">
-        <v>13.42905591519561</v>
-      </c>
       <c r="P10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276933</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R11" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>503.0168661831893</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327299</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O12" t="n">
-        <v>511.5201565133841</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L13" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N13" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O13" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
         <v>307.6533340553059</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O15" t="n">
-        <v>460.0739271306251</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N16" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O16" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q16" t="n">
         <v>138.4502995641581</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>460.0739271306251</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36132,7 +36132,7 @@
         <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
         <v>635.6527791348811</v>
@@ -36205,7 +36205,7 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>406.9362247529255</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
@@ -36214,7 +36214,7 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817344</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895099</v>
@@ -36293,7 +36293,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36360,7 +36360,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
@@ -36448,13 +36448,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193564</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36530,7 +36530,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36597,10 +36597,10 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K26" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>603.2869386407068</v>
       </c>
       <c r="M26" t="n">
         <v>671.8997542381571</v>
@@ -36676,7 +36676,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>254.6558406676092</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
@@ -36685,7 +36685,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
         <v>511.520156513384</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>99.23269631296317</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>275.1524474351051</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>399.8995608753422</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>430.5210211831172</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>426.4784059946981</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>380.0061904844786</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>305.6801013489133</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>136.4770668577655</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116867</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721832</v>
@@ -36855,7 +36855,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>135.3713180677437</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193557</v>
+        <v>99.23269631296317</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>275.1524474351051</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>399.8995608753422</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>430.5210211831172</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>426.4784059946981</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>380.0061904844786</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>305.6801013489133</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>136.4770668577655</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N33" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
         <v>511.520156513384</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K35" t="n">
         <v>433.5251384721832</v>
@@ -37390,13 +37390,13 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>406.9362247529255</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K38" t="n">
         <v>433.5251384721832</v>
@@ -37703,19 +37703,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817346</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37803,7 +37803,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
         <v>277.1256801414978</v>
@@ -37955,10 +37955,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38177,16 +38177,16 @@
         <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908713</v>
